--- a/medicine/Sexualité et sexologie/Knock_Knock_(film,_2015)/Knock_Knock_(film,_2015).xlsx
+++ b/medicine/Sexualité et sexologie/Knock_Knock_(film,_2015)/Knock_Knock_(film,_2015).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knock Knock ou N'ouvrez pas la porte au Québec est un thriller psychologique américano-chilien réalisé par Eli Roth, sorti en 2015.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Evan Webber, architecte, est marié et heureux père de famille. Afin de terminer tranquillement un travail pendant la fête des pères, il laisse sa femme et ses enfants partir à la plage pour le week-end. C'est alors que deux belles jeunes femmes, Genesis et Bel, s'auto-proclamant « comme des filles de 15 ans », sonnent à sa porte et s'immiscent dans sa maison. Après quelques heures où les jeunes filles dépassent les limites sexuelles avec le jeune père, elles vont s'immiscer progressivement dans sa vie, le punissant pour leur avoir cédé, le torturant sexuellement et psychologiquement.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Knock Knock
@@ -564,12 +580,12 @@
 Format : couleur - DCP
 Genre : thriller psychologique érotique
 Durée : 99 minutes
-Dates de sortie[1] :
+Dates de sortie :
 États-Unis : 23 janvier 2015 (festival du film de Sundance)
 France : 23 septembre 2015
 Chili : 24 septembre 2015
 Classification :
-France : interdit aux moins de 12 ans avec avertissement[2]</t>
+France : interdit aux moins de 12 ans avec avertissement</t>
         </is>
       </c>
     </row>
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Keanu Reeves (VF : Jean-Pierre Michaël) : Evan Webber
 Lorenza Izzo (VF : Sophie Planet)[n 1] : Genesis
@@ -607,7 +625,7 @@
 Colleen Camp (VFB : Fabienne Loriaux) : Vivian
 Dan Baily (VF : Camille Vautier) : Jake
 Megan Baily (VF : Nathalie Parra) : Lisa
-Source et légende : version française (VF) sur AlloDoublage[3]</t>
+Source et légende : version française (VF) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -637,11 +655,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Eli Roth a coécrit le scénario avec le cinéaste chilien Nicolás López, qui l'avait dirigé dans Aftershock (2012), et Guillermo Amoedo (coauteur de The Green Inferno).
-Attribution des rôles
-Tournage
-Le tournage a eu lieu à Santiago, capitale du Chili[4], du 14 avril 2014[5] au 11 mai 2014[6].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eli Roth a coécrit le scénario avec le cinéaste chilien Nicolás López, qui l'avait dirigé dans Aftershock (2012), et Guillermo Amoedo (coauteur de The Green Inferno).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Knock_Knock_(film,_2015)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knock_Knock_(film,_2015)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu à Santiago, capitale du Chili, du 14 avril 2014 au 11 mai 2014.
 </t>
         </is>
       </c>
